--- a/2023/czech-republic_cfl-group-b_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,63 +857,63 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>Prepere</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>5.47</v>
+        <v>2.18</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>06/08/2023 01:42</t>
+          <t>04/08/2023 22:42</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.91</v>
+        <v>2.54</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>06/08/2023 09:35</t>
+          <t>06/08/2023 10:12</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.8</v>
+        <v>3.31</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>06/08/2023 01:42</t>
+          <t>04/08/2023 22:42</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>4.87</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>06/08/2023 09:35</t>
+          <t>06/08/2023 10:12</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>2.73</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>06/08/2023 01:42</t>
+          <t>04/08/2023 22:42</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>2.39</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>06/08/2023 09:35</t>
+          <t>06/08/2023 10:12</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-slovan-velvary/tGsGETlo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-prepere/MBK2xXth/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Prepere</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.18</v>
+        <v>5.47</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>04/08/2023 22:42</t>
+          <t>06/08/2023 01:42</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.54</v>
+        <v>3.91</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>06/08/2023 10:12</t>
+          <t>06/08/2023 09:35</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.31</v>
+        <v>4.8</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>04/08/2023 22:42</t>
+          <t>06/08/2023 01:42</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>4.87</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>06/08/2023 10:12</t>
+          <t>06/08/2023 09:35</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.73</v>
+        <v>1.41</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>04/08/2023 22:42</t>
+          <t>06/08/2023 01:42</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.39</v>
+        <v>1.6</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>06/08/2023 10:12</t>
+          <t>06/08/2023 09:35</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-prepere/MBK2xXth/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-slovan-velvary/tGsGETlo/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Banik Most-Sous</t>
+          <t>Pardubice B</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.39</v>
+        <v>2.04</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>03/09/2023 01:42</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.67</v>
+        <v>2.2</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/09/2023 10:00</t>
+          <t>03/09/2023 10:10</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.25</v>
+        <v>3.49</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>03/09/2023 01:42</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.25</v>
+        <v>3.62</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>03/09/2023 09:47</t>
+          <t>03/09/2023 10:10</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.49</v>
+        <v>3.16</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>03/09/2023 01:42</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.48</v>
+        <v>2.82</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/09/2023 10:00</t>
+          <t>03/09/2023 09:23</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-banik-most-sous/SEYIj5H8/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-pardubice/YR3JlqnL/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Pardubice B</t>
+          <t>Zivanice</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>01/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>03/09/2023 08:20</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>01/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>03/09/2023 08:20</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>01/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
         <v>2.04</v>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>03/09/2023 01:42</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>03/09/2023 10:10</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>03/09/2023 01:42</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>03/09/2023 10:10</t>
-        </is>
-      </c>
-      <c r="R36" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>03/09/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T36" t="n">
-        <v>2.82</v>
-      </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>03/09/2023 09:23</t>
+          <t>03/09/2023 08:20</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-pardubice/YR3JlqnL/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-zivanice/fy5FkPWE/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Zivanice</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.77</v>
+        <v>2.08</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>01/09/2023 22:46</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.13</v>
+        <v>2.19</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>03/09/2023 08:20</t>
+          <t>03/09/2023 10:12</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.33</v>
+        <v>3.73</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>01/09/2023 22:46</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.63</v>
+        <v>4.35</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>03/09/2023 08:20</t>
+          <t>03/09/2023 10:11</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>01/09/2023 22:46</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.04</v>
+        <v>2.51</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>03/09/2023 08:20</t>
+          <t>03/09/2023 10:12</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-zivanice/fy5FkPWE/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-usti-nad-labem/QPrbs1ve/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Banik Most-Sous</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
         <v>2</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Usti nad Labem</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
       <c r="J38" t="n">
-        <v>2.08</v>
+        <v>2.39</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>01/09/2023 22:46</t>
+          <t>01/09/2023 22:42</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.19</v>
+        <v>2.67</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>03/09/2023 10:12</t>
+          <t>03/09/2023 10:00</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.73</v>
+        <v>3.25</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>01/09/2023 22:46</t>
+          <t>01/09/2023 22:42</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>4.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>03/09/2023 10:11</t>
+          <t>03/09/2023 09:47</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.7</v>
+        <v>2.49</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>01/09/2023 22:46</t>
+          <t>01/09/2023 22:42</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.51</v>
+        <v>2.48</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>03/09/2023 10:12</t>
+          <t>03/09/2023 10:00</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-usti-nad-labem/QPrbs1ve/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-banik-most-sous/SEYIj5H8/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Kolin</t>
+          <t>Prepere</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Teplice B</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Velvary</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>4</v>
-      </c>
       <c r="J44" t="n">
-        <v>2.91</v>
+        <v>1.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.1</v>
+        <v>1.81</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:15</t>
+          <t>09/09/2023 10:26</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.41</v>
+        <v>4.28</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.48</v>
+        <v>4.22</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>09/09/2023 08:32</t>
+          <t>09/09/2023 10:26</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.08</v>
+        <v>4.59</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:15</t>
+          <t>09/09/2023 10:26</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/kolin-slovan-velvary/zgoVqf0g/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/prepere-teplice/IHjQpzom/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Prepere</t>
+          <t>Kolin</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Teplice B</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>1.5</v>
+        <v>2.91</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.81</v>
+        <v>3.1</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>09/09/2023 10:26</t>
+          <t>09/09/2023 10:15</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.28</v>
+        <v>3.41</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.22</v>
+        <v>3.48</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>09/09/2023 10:26</t>
+          <t>09/09/2023 08:32</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.59</v>
+        <v>2.08</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>09/09/2023 10:26</t>
+          <t>09/09/2023 10:15</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/prepere-teplice/IHjQpzom/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/kolin-slovan-velvary/zgoVqf0g/</t>
         </is>
       </c>
     </row>
@@ -5698,6 +5698,282 @@
       <c r="V57" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/brozany-pardubice/CvCaaZat/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45191.70833333334</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kolin</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>6</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Prepere</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>21/09/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>22/09/2023 15:16</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>21/09/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>22/09/2023 16:02</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>21/09/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>22/09/2023 15:15</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/kolin-prepere/UgFWi9bU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45191.75</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Usti nad Labem</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Teplice B</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>21/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>22/09/2023 17:50</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>21/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>22/09/2023 17:51</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>21/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>22/09/2023 17:51</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/usti-nad-labem-teplice/fHtwDhUu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45192.42708333334</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Jablonec B</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Liberec B</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>21/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:00</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>21/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:08</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>21/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:08</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/jablonec-liberec/bebLfBEB/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-b_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,63 +857,63 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Prepere</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.18</v>
+        <v>5.47</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>04/08/2023 22:42</t>
+          <t>06/08/2023 01:42</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.54</v>
+        <v>3.91</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>06/08/2023 10:12</t>
+          <t>06/08/2023 09:35</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.31</v>
+        <v>4.8</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>04/08/2023 22:42</t>
+          <t>06/08/2023 01:42</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>4.87</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>06/08/2023 10:12</t>
+          <t>06/08/2023 09:35</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.73</v>
+        <v>1.41</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>04/08/2023 22:42</t>
+          <t>06/08/2023 01:42</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.39</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>06/08/2023 10:12</t>
+          <t>06/08/2023 09:35</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-prepere/MBK2xXth/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-slovan-velvary/tGsGETlo/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>Prepere</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>5.47</v>
+        <v>2.18</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>06/08/2023 01:42</t>
+          <t>04/08/2023 22:42</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.91</v>
+        <v>2.54</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>06/08/2023 09:35</t>
+          <t>06/08/2023 10:12</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.8</v>
+        <v>3.31</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>06/08/2023 01:42</t>
+          <t>04/08/2023 22:42</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.87</v>
+        <v>3.5</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>06/08/2023 09:35</t>
+          <t>06/08/2023 10:12</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.41</v>
+        <v>2.73</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>06/08/2023 01:42</t>
+          <t>04/08/2023 22:42</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>1.6</v>
+        <v>2.39</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>06/08/2023 09:35</t>
+          <t>06/08/2023 10:12</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-slovan-velvary/tGsGETlo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-prepere/MBK2xXth/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Zapy</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Pardubice B</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
       <c r="J19" t="n">
-        <v>1.8</v>
+        <v>3.79</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>18/08/2023 22:42</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.55</v>
+        <v>3.83</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 10:12</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.62</v>
+        <v>3.91</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>18/08/2023 22:42</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4.48</v>
+        <v>3.94</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 10:12</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.37</v>
+        <v>1.72</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>18/08/2023 22:42</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>4.62</v>
+        <v>1.75</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 10:12</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-pardubice/jTVzuQ2j/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-zapy/UJUvvpId/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Zapy</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.79</v>
+        <v>2.91</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:44</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.83</v>
+        <v>5.27</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:13</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.91</v>
+        <v>3.5</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:44</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.94</v>
+        <v>4.31</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:13</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.72</v>
+        <v>2.04</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:44</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:13</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-zapy/UJUvvpId/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-usti-nad-labem/xMk0oSPM/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Prepere</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Usti nad Labem</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
       <c r="J21" t="n">
-        <v>2.91</v>
+        <v>1.6</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>18/08/2023 22:44</t>
+          <t>18/08/2023 22:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5.27</v>
+        <v>1.7</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>20/08/2023 10:13</t>
+          <t>20/08/2023 09:11</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.5</v>
+        <v>3.99</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>18/08/2023 22:44</t>
+          <t>18/08/2023 22:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.31</v>
+        <v>4.25</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>20/08/2023 10:13</t>
+          <t>20/08/2023 09:11</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.04</v>
+        <v>3.92</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>18/08/2023 22:44</t>
+          <t>18/08/2023 22:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.48</v>
+        <v>3.81</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>20/08/2023 10:13</t>
+          <t>20/08/2023 09:11</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-usti-nad-labem/xMk0oSPM/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-prepere/tbAyvSX2/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Pardubice B</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>2</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Prepere</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
       <c r="J22" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>20/08/2023 09:11</t>
+          <t>20/08/2023 10:12</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.99</v>
+        <v>3.62</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>4.25</v>
+        <v>4.48</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>20/08/2023 09:11</t>
+          <t>20/08/2023 10:12</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.92</v>
+        <v>3.37</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.81</v>
+        <v>4.62</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>20/08/2023 09:11</t>
+          <t>20/08/2023 10:12</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-prepere/tbAyvSX2/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-pardubice/jTVzuQ2j/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pardubice B</t>
+          <t>Banik Most-Sous</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>2.04</v>
+        <v>2.39</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>03/09/2023 01:42</t>
+          <t>01/09/2023 22:42</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.2</v>
+        <v>2.67</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/09/2023 10:10</t>
+          <t>03/09/2023 10:00</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.49</v>
+        <v>3.25</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>03/09/2023 01:42</t>
+          <t>01/09/2023 22:42</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.62</v>
+        <v>3.25</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>03/09/2023 10:10</t>
+          <t>03/09/2023 09:47</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.16</v>
+        <v>2.49</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>03/09/2023 01:42</t>
+          <t>01/09/2023 22:42</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.82</v>
+        <v>2.48</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/09/2023 09:23</t>
+          <t>03/09/2023 10:00</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-pardubice/YR3JlqnL/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-banik-most-sous/SEYIj5H8/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Zivanice</t>
+          <t>Pardubice B</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.77</v>
+        <v>2.04</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>03/09/2023 01:42</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3.13</v>
+        <v>2.2</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>03/09/2023 08:20</t>
+          <t>03/09/2023 10:10</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>03/09/2023 01:42</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.63</v>
+        <v>3.62</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>03/09/2023 08:20</t>
+          <t>03/09/2023 10:10</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.15</v>
+        <v>3.16</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>03/09/2023 01:42</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.04</v>
+        <v>2.82</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>03/09/2023 08:20</t>
+          <t>03/09/2023 09:23</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-zivanice/fy5FkPWE/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-pardubice/YR3JlqnL/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Zivanice</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
         <v>2</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Usti nad Labem</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
       <c r="J37" t="n">
-        <v>2.08</v>
+        <v>2.77</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>01/09/2023 22:46</t>
+          <t>01/09/2023 22:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.19</v>
+        <v>3.13</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>03/09/2023 10:12</t>
+          <t>03/09/2023 08:20</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.73</v>
+        <v>3.33</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>01/09/2023 22:46</t>
+          <t>01/09/2023 22:42</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>4.35</v>
+        <v>3.63</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>03/09/2023 10:11</t>
+          <t>03/09/2023 08:20</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>01/09/2023 22:46</t>
+          <t>01/09/2023 22:42</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.51</v>
+        <v>2.04</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>03/09/2023 10:12</t>
+          <t>03/09/2023 08:20</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-usti-nad-labem/QPrbs1ve/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-zivanice/fy5FkPWE/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Banik Most-Sous</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.39</v>
+        <v>2.08</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>01/09/2023 22:46</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.67</v>
+        <v>2.19</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>03/09/2023 10:00</t>
+          <t>03/09/2023 10:12</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.25</v>
+        <v>3.73</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>01/09/2023 22:46</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.25</v>
+        <v>4.35</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>03/09/2023 09:47</t>
+          <t>03/09/2023 10:11</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.49</v>
+        <v>2.7</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>01/09/2023 22:46</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.48</v>
+        <v>2.51</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>03/09/2023 10:00</t>
+          <t>03/09/2023 10:12</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-banik-most-sous/SEYIj5H8/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-usti-nad-labem/QPrbs1ve/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Pardubice B</t>
+          <t>Jablonec B</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.58</v>
+        <v>1.8</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,48 +4276,48 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.3</v>
+        <v>1.55</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>09/09/2023 10:14</t>
+          <t>09/09/2023 10:08</t>
         </is>
       </c>
       <c r="N42" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>07/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>09/09/2023 10:08</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
         <v>3.35</v>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>07/09/2023 22:42</t>
         </is>
       </c>
-      <c r="P42" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>09/09/2023 10:13</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>07/09/2023 22:42</t>
-        </is>
-      </c>
       <c r="T42" t="n">
-        <v>1.83</v>
+        <v>5.01</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>09/09/2023 10:14</t>
+          <t>09/09/2023 10:08</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-chlumec-nad-cidlinou/zeQl4Oo8/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/jablonec-mlada-boleslav/Ykn6uu97/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Jablonec B</t>
+          <t>Pardubice B</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>1.8</v>
+        <v>2.58</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.55</v>
+        <v>3.3</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:08</t>
+          <t>09/09/2023 10:14</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.63</v>
+        <v>3.35</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.17</v>
+        <v>4.27</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:08</t>
+          <t>09/09/2023 10:13</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.35</v>
+        <v>2.26</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>5.01</v>
+        <v>1.83</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:08</t>
+          <t>09/09/2023 10:14</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/jablonec-mlada-boleslav/Ykn6uu97/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-chlumec-nad-cidlinou/zeQl4Oo8/</t>
         </is>
       </c>
     </row>
@@ -5974,6 +5974,466 @@
       <c r="V60" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/jablonec-liberec/bebLfBEB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45192.625</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Banik Most-Sous</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Chlumec nad Cidlinou</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:10</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:10</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:10</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/banik-most-sous-chlumec-nad-cidlinou/2spoBWbh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45192.6875</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Zivanice</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Brozany</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:43</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:25</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:43</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:25</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:43</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:25</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zivanice-brozany/Y7usCCqn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45193.42708333334</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Mlada Boleslav B</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>3</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Hradec Kralove B</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>22/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:14</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>22/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:14</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>22/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:14</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-hradec-kralove/xncPgVTH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45193.42708333334</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Pardubice B</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>FK Ceska Lipa</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>22/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:07</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>22/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:07</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>22/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:07</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-fk-ceska-lipa/W8dThkqO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45193.60416666666</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Zapy</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Velvary</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>23/09/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:14</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>23/09/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:14</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>23/09/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:14</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zapy-slovan-velvary/tK3Geia5/</t>
         </is>
       </c>
     </row>
